--- a/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table5.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb161/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA5A79-B0FC-2448-BB52-698DEBCD070F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA339CD4-392E-6849-8417-653CC27B736D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="1580" windowWidth="27640" windowHeight="16940" xr2:uid="{9E4A35FF-88B8-E04B-AB57-02D8F0BCC5AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{9E4A35FF-88B8-E04B-AB57-02D8F0BCC5AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -132,9 +140,6 @@
     <t>86- 90</t>
   </si>
   <si>
-    <t>Total...............</t>
-  </si>
-  <si>
     <t xml:space="preserve">91- 95................ </t>
   </si>
   <si>
@@ -148,6 +153,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -515,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDC4CE0-6450-B146-B725-33750526B3EB}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,7 +553,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -732,7 +740,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>7</v>
@@ -743,7 +751,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>7</v>
@@ -930,7 +938,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
@@ -941,7 +949,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>4962</v>
@@ -952,7 +960,7 @@
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <f>SUM(B2:B37)-B38</f>
